--- a/Proje/Liste.xlsx
+++ b/Proje/Liste.xlsx
@@ -570,6 +570,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -795,7 +798,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>